--- a/output/df_variables.xlsx
+++ b/output/df_variables.xlsx
@@ -70,7 +70,7 @@
     <t>t,n</t>
   </si>
   <si>
-    <t>t,m,n</t>
+    <t>t,n,m</t>
   </si>
 </sst>
 </file>
